--- a/src/cloud/tests/HCM/CoreHR_Argentina/AddingAnContingentWorkerITC_Test.xlsx
+++ b/src/cloud/tests/HCM/CoreHR_Argentina/AddingAnContingentWorkerITC_Test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vramasubramanian\OneDrive - IT Convergence\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\HCM\CoreHR_Argentina\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E44EBA-46BE-42B9-B977-64F14A6B6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13155" windowHeight="2520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Execute</t>
   </si>
@@ -88,9 +94,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Gustavo, Gutierrez</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -134,12 +137,147 @@
   </si>
   <si>
     <t>{HCM_Arg_username}</t>
+  </si>
+  <si>
+    <t>AssignmentCategory</t>
+  </si>
+  <si>
+    <t>RegularOrTemp</t>
+  </si>
+  <si>
+    <t>FullTimeOrPartTime</t>
+  </si>
+  <si>
+    <t>Part-time regular</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Argentina Payroll 12x</t>
+  </si>
+  <si>
+    <t>Gonzalez Figueroa, Gustavo</t>
+  </si>
+  <si>
+    <t>PlacementReason</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>SubcontractAgreement</t>
+  </si>
+  <si>
+    <t>TemporaryEmploymentAgreement</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>OriginalDateOfHire</t>
+  </si>
+  <si>
+    <t>PreferredName</t>
+  </si>
+  <si>
+    <t>EmployeeLegalStatus</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Address4</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>HighestEducationLevel</t>
+  </si>
+  <si>
+    <t>VeteranSelfIdentificationStatus</t>
+  </si>
+  <si>
+    <t>I9Status</t>
+  </si>
+  <si>
+    <t>EVerifyStatus</t>
+  </si>
+  <si>
+    <t>I9Expiration</t>
+  </si>
+  <si>
+    <t>NewHireStatus</t>
+  </si>
+  <si>
+    <t>ExceptionReason</t>
+  </si>
+  <si>
+    <t>MedicalInsuranceavailable</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>ReportingEstablishment</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>WorkingAtHome</t>
+  </si>
+  <si>
+    <t>WorkingAsManager</t>
+  </si>
+  <si>
+    <t>HourlyPaisOrSalaried</t>
+  </si>
+  <si>
+    <t>WorkingHours</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>StatementOfWorkSigned</t>
+  </si>
+  <si>
+    <t>GroupDescription</t>
+  </si>
+  <si>
+    <t>JobDescription</t>
+  </si>
+  <si>
+    <t>PeopleGroup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -358,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -552,18 +690,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,12 +712,12 @@
     <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
-    <col min="9" max="21" width="20.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="0.85546875" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="61" width="20.7109375" style="3" customWidth="1"/>
+    <col min="62" max="62" width="0.85546875" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
@@ -606,8 +744,48 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -636,10 +814,10 @@
         <v>14</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>15</v>
@@ -648,19 +826,139 @@
         <v>16</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="Z2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -668,59 +966,107 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6"/>
       <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:U1"/>
+    <mergeCell ref="I1:BI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -728,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
